--- a/biology/Zoologie/Feaella/Feaella.xlsx
+++ b/biology/Zoologie/Feaella/Feaella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Feaella est un genre de pseudoscorpions de la famille des Feaellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Australie et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Australie et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Feaella (Difeaella) Beier, 1966
 Feaella krugeri Beier, 1966
 Feaella (Feaella) Ellingsen, 1906
@@ -594,7 +610,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ellingsen, 1906 : « Report on the pseudoscorpions of the Guinea Coast (Africa) collected by Leonardo Fea. » Annali del Museo Civico di Storia Naturale di Genova, sér. 3, vol. 2, p. 243-265.
 Beier, 1955 : « Pseudoscorpionidea, gesammelt während der schwedischen Expeditionen nach Ostafrika 1937-38 und 1948. » Arkiv för Zoologi, sér. 2, vol. 7, p. 527-558.
